--- a/frontend/public/templates/curriculumn.xlsx
+++ b/frontend/public/templates/curriculumn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\NihonStudyGuide\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65064E-F9D8-4D6C-8C0D-85FA26E468AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3173B-2B6C-4766-93F8-6CFDB0F1104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{56EDAB6C-C3B7-4DDE-92F9-23A04AE68FED}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Session no</t>
   </si>
   <si>
-    <t>curriculumnListTitle</t>
+    <t xml:space="preserve">input curriculimn list title </t>
+  </si>
+  <si>
+    <t>Curriculumn List Title</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +127,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -154,11 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +543,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +585,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{B3C9CF50-D6F0-48D0-94EC-73EC72A62970}">
+      <formula1>"Daily, Mid-term Exam, Final Exam"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -580,9 +597,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760E0EB3-F54B-4AE6-9B42-B0CD53A7476C}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -609,6 +628,9 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -622,6 +644,9 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
